--- a/Data_files/bio-info.xlsx
+++ b/Data_files/bio-info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="2300" yWindow="3400" windowWidth="28160" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,26 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Northwestern University</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Lu{\'i}s A. Nunes Amaral</t>
-  </si>
-  <si>
-    <t>LAN Amaral's Curriculum Vitae</t>
-  </si>
-  <si>
-    <t>Curriculum Vitae compiled on {\today}</t>
-  </si>
-  <si>
     <t>https://amaral.northwestern.edu</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
     <t>CVTitle</t>
   </si>
   <si>
-    <t>CVNote</t>
-  </si>
-  <si>
     <t>CVWebpage</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>./Data_files/photo.png</t>
-  </si>
-  <si>
     <t>CVAddressOne</t>
   </si>
   <si>
@@ -147,6 +126,15 @@
   </si>
   <si>
     <t>http://bit.ly/AmaralPublons</t>
+  </si>
+  <si>
+    <t>Luis A. Nunes Amaral</t>
+  </si>
+  <si>
+    <t>LAN Amaral s Curriculum Vitae</t>
+  </si>
+  <si>
+    <t>photo.png</t>
   </si>
 </sst>
 </file>
@@ -530,272 +518,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A20" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
